--- a/statistics/barchart.xlsx
+++ b/statistics/barchart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iFolder\NYU\20Fall\GPU\project\stat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iFolder\NYU\20Fall\GPU\project\CUDA_Project\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7312BA4E-FB20-45E3-AF6F-913C8FEC0117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC90A263-CA53-4239-AF0D-AB2A2511043B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C03F7CDA-AB8A-405E-B512-4A2DC8D58E21}"/>
   </bookViews>
@@ -1879,7 +1879,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Worst case, text size = 320 MB</a:t>
+              <a:t>Worst case, text size = 16 MB</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -2350,7 +2350,7 @@
                   <c:v>51.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.67</c:v>
+                  <c:v>61.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4724,8 +4724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47974615-8D37-4288-8DCC-8EE43D8A4E94}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="W41" sqref="W41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5251,7 +5251,7 @@
         <v>0.33</v>
       </c>
       <c r="D29">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5260,7 +5260,7 @@
         <v>37.21</v>
       </c>
       <c r="G29">
-        <v>51.67</v>
+        <v>61.4</v>
       </c>
     </row>
   </sheetData>
